--- a/biology/Histoire de la zoologie et de la botanique/Odo_Morannal_Reuter/Odo_Morannal_Reuter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Odo_Morannal_Reuter/Odo_Morannal_Reuter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Odo Morannal Reuter (né le 28 avril 1850 à Turku (grand-duché de Finlande) et mort le 2 septembre 1913 à Turku) est un entomologiste finlandais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odo Morannal Reuter (né le 28 avril 1850 à Turku (grand-duché de Finlande) et mort le 2 septembre 1913 à Turku) est un entomologiste finlandais.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,48 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En plus de ses publications scientifiques, Odo Reuter a également publié neuf recueils de poésie et écrit, entre autres, des guides de voyage.
-Publications scientifiques
-Revisio critica Capsinarum praecipue Scandinaviae et Fenniae, thèse  1875
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de ses publications scientifiques, Odo Reuter a également publié neuf recueils de poésie et écrit, entre autres, des guides de voyage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Odo_Morannal_Reuter</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odo_Morannal_Reuter</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Revisio critica Capsinarum praecipue Scandinaviae et Fenniae, thèse  1875
 Hemiptera Gymnoceratae Europae I-V. 1878–1896
 Ad cognitionem Reduviidarum. 1881
 Monographia Anthocoridarum orbis terrestris. 1885
@@ -561,16 +612,84 @@
 Thysaunoptera Fennica : förteckning och beskrifning öfver finska Thysanoptera. 1898–1899
 Monographia generis Heteropterorum Phimodera Germ. Cum tabulis duabus.  1908
 Monographia Nabidarum orbis terrestris : pars prior : cum tabula colorata.  1910 (avec B. Poppiuksen)
-Insekternas levnadsvanor och instinkter intill gryningen av de sociala instinkterna.  1913 (suomeksi nimellä Hyönteisten elintavat ja vaistot : yhteiskunnallisten vaistojen sarastukseen saakka, Otava 1917–1919)
-Recueils de poèmes
-Karin Månsdotters saga: en diktcykel. 1880
+Insekternas levnadsvanor och instinkter intill gryningen av de sociala instinkterna.  1913 (suomeksi nimellä Hyönteisten elintavat ja vaistot : yhteiskunnallisten vaistojen sarastukseen saakka, Otava 1917–1919)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Odo_Morannal_Reuter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odo_Morannal_Reuter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de poèmes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Karin Månsdotters saga: en diktcykel. 1880
 Dikter 1881
 Nya Dikter 1889
 I brytningstid:  tolf dikter.  1899
 Dikter III 1906
-Nattens sånger 1911
-Autres ouvrages
-Intressanta reseruter i Finland.  Edlund, Helsingfors 1882 (nimimerkillä Peregrinus)
+Nattens sånger 1911</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Odo_Morannal_Reuter</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Odo_Morannal_Reuter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Intressanta reseruter i Finland.  Edlund, Helsingfors 1882 (nimimerkillä Peregrinus)
 Om Finlands fiskar och fisket i Finland.  Svenska folkskolans vänner, Helsingfors 1893
 Finlands natur, folk och kultur : en öfverblick.  Söderstrm 1899
 Uno Cygnæus och folkbildningen i Finland : med ett porträtt.  1899
